--- a/isg_cena_chip_wirebonding_board/Project Outputs for isg_cena_chip_wirebonding_board/isg_cena_chip_wirebonding_board_BOM.xlsx
+++ b/isg_cena_chip_wirebonding_board/Project Outputs for isg_cena_chip_wirebonding_board/isg_cena_chip_wirebonding_board_BOM.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Admin/Documents/github/dkramnik/Altium-Public/isg_cena_chip_wirebonding_board/Project Outputs for isg_cena_chip_wirebonding_board/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel\Documents\GitHub\Altium-Public\isg_cena_chip_wirebonding_board\Project Outputs for isg_cena_chip_wirebonding_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C3109F2-5016-4B43-BB0D-85E5E580083C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC8BD89-D210-47CC-967E-560A5FB51CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="10152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isg_cena_chip_wirebonding_board" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -67,12 +80,6 @@
     <t>U1, U2, U3, U4, U5, U6, U7, U8, U9, U10, U11, U12, U13, U14, U15, U16</t>
   </si>
   <si>
-    <t>TFM-125-02-X-D-A</t>
-  </si>
-  <si>
-    <t>SAMTEC TFM-125-02-X-D-A</t>
-  </si>
-  <si>
     <t>X1, X2</t>
   </si>
   <si>
@@ -101,12 +108,18 @@
   </si>
   <si>
     <t>Quantity/PCBA</t>
+  </si>
+  <si>
+    <t>TFM-125-02-S-D-A</t>
+  </si>
+  <si>
+    <t>Samtec TFM-125-02-S-D-A SMT Connector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -941,29 +954,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -975,10 +988,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -986,7 +999,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -998,7 +1011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -1019,7 +1032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A8" si="0">A3+1</f>
         <v>3</v>
@@ -1028,7 +1041,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1040,13 +1053,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1061,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1082,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1091,34 +1104,34 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
       </c>
       <c r="F8">
         <v>2</v>
